--- a/biology/Médecine/Industrie_agropharmaceutique/Industrie_agropharmaceutique.xlsx
+++ b/biology/Médecine/Industrie_agropharmaceutique/Industrie_agropharmaceutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Industrie agropharmaceutique désigne un domaine industriel produisant des médicaments ou des produits phytosanitaires. Cet type d'industrie regroupe un petit nombre de sociétés très puissantes, essentiellement occidentales et dans une moindre mesure indiennes.
 Cette industrie est très décriée pour plusieurs raisons :
-elle est impliquée dans de nombreux scandales, comme celui de vache folle[réf. nécessaire], des œufs contaminés au fipronil[1] ou du levothyrox[2].
+elle est impliquée dans de nombreux scandales, comme celui de vache folle[réf. nécessaire], des œufs contaminés au fipronil ou du levothyrox.
 les bénéfices très importants effectués sur ce secteur ;
 les différends qui l'opposent aux ONG dans le dossier de l'accès des populations non solvables aux médicaments, notamment dans le cas du virus du sida[réf. nécessaire] ;
 le désintérêt pour les maladies rares ou orphelines ;[réf. nécessaire]
